--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2330329.963126429</v>
+        <v>2326077.483499805</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>345.410809369951</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.9075077423441</v>
+        <v>13.90750774234414</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051722</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548843</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607256</v>
+        <v>62.2260157260727</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>124.5932332748339</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046871</v>
+        <v>11.95226522994673</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031456</v>
+        <v>63.69429571031461</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>64.74357790520666</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486214</v>
+        <v>197.1557544486215</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3651273148851</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.58025560049929</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601726</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>93.09052702289337</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>27.68376768464247</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>24.95058996011246</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -983,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>87.10509000261204</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.52922194059585</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>92.80671266704682</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>162.1898811504855</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>249.9002656300887</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>267.5891494350703</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>4.416611149235648</v>
+        <v>51.92096917925216</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.33703994143007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>166.5451136812777</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>144.4286493356916</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>151.3642268094354</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>75.00788511618039</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>243.4759147696085</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>178.8757728051408</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>35.03063761899909</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>27.34574348918484</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710068</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>37.40501058442996</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>18.52833786981382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>39.56681219551418</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2101.5937033333</v>
+        <v>1589.142112486515</v>
       </c>
       <c r="C2" t="n">
-        <v>2101.5937033333</v>
+        <v>1220.179595546103</v>
       </c>
       <c r="D2" t="n">
-        <v>1752.693895888905</v>
+        <v>861.9138969393528</v>
       </c>
       <c r="E2" t="n">
-        <v>1366.90564329066</v>
+        <v>476.1256443411085</v>
       </c>
       <c r="F2" t="n">
-        <v>955.919738501053</v>
+        <v>65.13973955150095</v>
       </c>
       <c r="G2" t="n">
-        <v>537.8313468421195</v>
+        <v>51.09175193297152</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237638</v>
+        <v>51.09175193297152</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297158</v>
+        <v>51.09175193297152</v>
       </c>
       <c r="J2" t="n">
         <v>156.4961545710335</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005014</v>
+        <v>435.214835100501</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311651</v>
+        <v>833.266631831164</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537226</v>
+        <v>1292.782497537224</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813644</v>
+        <v>1745.101812813642</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132814</v>
+        <v>2127.026478132811</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935768</v>
+        <v>2415.315960935766</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648579</v>
+        <v>2554.587596648576</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309112</v>
+        <v>2491.733035309109</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309112</v>
+        <v>2491.733035309109</v>
       </c>
       <c r="T2" t="n">
-        <v>2491.733035309112</v>
+        <v>2491.733035309109</v>
       </c>
       <c r="U2" t="n">
-        <v>2491.733035309112</v>
+        <v>2491.733035309109</v>
       </c>
       <c r="V2" t="n">
-        <v>2491.733035309112</v>
+        <v>2491.733035309109</v>
       </c>
       <c r="W2" t="n">
-        <v>2491.733035309112</v>
+        <v>2491.733035309109</v>
       </c>
       <c r="X2" t="n">
-        <v>2491.733035309112</v>
+        <v>2365.881284526448</v>
       </c>
       <c r="Y2" t="n">
-        <v>2101.5937033333</v>
+        <v>1975.741952550637</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.652206113561</v>
+        <v>894.638642603722</v>
       </c>
       <c r="C3" t="n">
-        <v>814.199176832434</v>
+        <v>720.185613322595</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711827</v>
+        <v>571.2512036613438</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0273121657272</v>
+        <v>412.0137486558883</v>
       </c>
       <c r="F3" t="n">
-        <v>359.4927541926121</v>
+        <v>265.4791906827733</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5159830592359</v>
+        <v>127.5024195493971</v>
       </c>
       <c r="H3" t="n">
         <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297158</v>
+        <v>51.09175193297152</v>
       </c>
       <c r="J3" t="n">
-        <v>120.176512368751</v>
+        <v>120.1765123687509</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270545</v>
+        <v>364.8742147270541</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066749</v>
+        <v>755.3048694066742</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633824</v>
+        <v>1262.898249633823</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358684</v>
+        <v>1642.492908358682</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635557</v>
+        <v>2067.084785635554</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.85413215397</v>
+        <v>2390.854132153967</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648579</v>
+        <v>2554.587596648576</v>
       </c>
       <c r="R3" t="n">
-        <v>2554.587596648579</v>
+        <v>2554.587596648576</v>
       </c>
       <c r="S3" t="n">
-        <v>2489.190043208976</v>
+        <v>2395.176479699137</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.042816493197</v>
+        <v>2196.029252983358</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.86880706406</v>
+        <v>1967.855243554221</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.716698832317</v>
+        <v>1732.703135322478</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104116</v>
+        <v>1478.465778594277</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.627841898583</v>
+        <v>1270.614278388744</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.867543133629</v>
+        <v>1062.85397962379</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.645157563611</v>
+        <v>2245.29443421465</v>
       </c>
       <c r="C4" t="n">
-        <v>458.645157563611</v>
+        <v>2076.358251286743</v>
       </c>
       <c r="D4" t="n">
-        <v>458.645157563611</v>
+        <v>1926.241611874407</v>
       </c>
       <c r="E4" t="n">
-        <v>458.645157563611</v>
+        <v>1926.241611874407</v>
       </c>
       <c r="F4" t="n">
-        <v>311.7552100657006</v>
+        <v>1926.241611874407</v>
       </c>
       <c r="G4" t="n">
-        <v>142.6995259092509</v>
+        <v>1926.241611874407</v>
       </c>
       <c r="H4" t="n">
-        <v>100.6992677269284</v>
+        <v>1926.241611874407</v>
       </c>
       <c r="I4" t="n">
-        <v>100.6992677269284</v>
+        <v>1926.241611874407</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297158</v>
+        <v>1926.241611874407</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771862</v>
+        <v>1976.180317018622</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703273</v>
+        <v>2095.611100911763</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486101</v>
+        <v>2231.923240190045</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493204</v>
+        <v>2370.428797890756</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455646</v>
+        <v>2482.344802687</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071411</v>
+        <v>2554.587596648576</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071411</v>
+        <v>2554.587596648576</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071411</v>
+        <v>2460.556761271916</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071411</v>
+        <v>2245.29443421465</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071411</v>
+        <v>2245.29443421465</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071411</v>
+        <v>2245.29443421465</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071411</v>
+        <v>2245.29443421465</v>
       </c>
       <c r="W4" t="n">
-        <v>679.4377367071411</v>
+        <v>2245.29443421465</v>
       </c>
       <c r="X4" t="n">
-        <v>679.4377367071411</v>
+        <v>2245.29443421465</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.645157563611</v>
+        <v>2245.29443421465</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1753.764213259728</v>
+        <v>490.1960930592697</v>
       </c>
       <c r="C5" t="n">
-        <v>1384.801696319317</v>
+        <v>490.1960930592697</v>
       </c>
       <c r="D5" t="n">
-        <v>1384.801696319317</v>
+        <v>490.1960930592697</v>
       </c>
       <c r="E5" t="n">
-        <v>999.0134437210725</v>
+        <v>490.1960930592697</v>
       </c>
       <c r="F5" t="n">
-        <v>588.0275389314648</v>
+        <v>79.21018826966218</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>170.9397571678923</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.48103656138642</v>
       </c>
       <c r="K5" t="n">
-        <v>643.3537986017849</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>782.6824544430381</v>
+        <v>707.8574493821779</v>
       </c>
       <c r="M5" t="n">
-        <v>1414.40026542635</v>
+        <v>1339.57526036549</v>
       </c>
       <c r="N5" t="n">
-        <v>1717.679295969</v>
+        <v>1966.882928425336</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2416.620883129034</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2527.355208378561</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2406.124290896984</v>
       </c>
       <c r="T5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>2152.432587642134</v>
+        <v>1937.632725909846</v>
       </c>
       <c r="V5" t="n">
-        <v>2152.432587642134</v>
+        <v>1606.569838566275</v>
       </c>
       <c r="W5" t="n">
-        <v>2152.432587642134</v>
+        <v>1253.801183296161</v>
       </c>
       <c r="X5" t="n">
-        <v>1778.966829381054</v>
+        <v>880.3354250350815</v>
       </c>
       <c r="Y5" t="n">
-        <v>1753.764213259728</v>
+        <v>490.1960930592697</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857312</v>
+        <v>893.4159553857321</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046042</v>
+        <v>718.9629261046051</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433529</v>
+        <v>570.0285164433539</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378983</v>
       </c>
       <c r="F6" t="n">
         <v>335.5090190736601</v>
@@ -4640,58 +4640,58 @@
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>51.2467865680031</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313601</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>623.2161460974787</v>
+        <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1257.395129876517</v>
+        <v>1637.874966375866</v>
       </c>
       <c r="N6" t="n">
-        <v>1566.198609964618</v>
+        <v>1836.531708028531</v>
       </c>
       <c r="O6" t="n">
-        <v>2115.634618717341</v>
+        <v>1996.044020697291</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2420.011789178128</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802342</v>
+        <v>2541.227428802343</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2391.760639664978</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
         <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1477.243091376287</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.12137432736571</v>
+        <v>312.9821679488397</v>
       </c>
       <c r="C7" t="n">
-        <v>69.12137432736571</v>
+        <v>312.9821679488397</v>
       </c>
       <c r="D7" t="n">
-        <v>69.12137432736571</v>
+        <v>162.8655285365039</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736571</v>
+        <v>69.12137432736573</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>69.12137432736573</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>69.12137432736573</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>69.12137432736573</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>69.12137432736573</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4749,28 +4749,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>920.7035067467505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>713.2632219991558</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>487.6340253115208</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>487.6340253115208</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>232.9495371056339</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>232.9495371056339</v>
+        <v>761.7642979903871</v>
       </c>
       <c r="X7" t="n">
-        <v>69.12137432736571</v>
+        <v>533.7747470923698</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.12137432736571</v>
+        <v>312.9821679488397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1582.523854133141</v>
+        <v>394.8580066177528</v>
       </c>
       <c r="C8" t="n">
-        <v>1582.523854133141</v>
+        <v>394.8580066177528</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395677</v>
+        <v>394.8580066177528</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974331</v>
+        <v>394.8580066177528</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078256</v>
+        <v>387.9125058685493</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362704</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852815979</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872829</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923555</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230812</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740836</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>1955.989612394221</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X8" t="n">
-        <v>1582.523854133141</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y8" t="n">
-        <v>1582.523854133141</v>
+        <v>781.4578466818746</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057894</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844787</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159515</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751729</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472119</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648282</v>
+        <v>1675.639966294861</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>645.3757517392146</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C10" t="n">
-        <v>476.4395688113077</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="D10" t="n">
-        <v>476.4395688113077</v>
+        <v>566.4817157534141</v>
       </c>
       <c r="E10" t="n">
-        <v>476.4395688113077</v>
+        <v>418.5686221710209</v>
       </c>
       <c r="F10" t="n">
-        <v>329.5496213133973</v>
+        <v>271.6786746731105</v>
       </c>
       <c r="G10" t="n">
-        <v>161.5631566216759</v>
+        <v>103.6922099813891</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386096</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749945</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749945</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749945</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.233965749945</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1047.816795712984</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1047.816795712984</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>827.0242165694543</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452613</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1922.614765620015</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,13 +5357,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560546</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
         <v>949.9304447718133</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>618.4214495336224</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>470.5083559512293</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>470.5083559512293</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.345997432834</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>923.4098145049275</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>773.2931750925917</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>625.3800815101986</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>478.4901340122882</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>311.2940347271681</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>169.5822035693662</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,10 +5788,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5892,19 +5892,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2490.32382148308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3087.702309109632</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3715.300272664238</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>1051.964939354873</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>883.0287564269665</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>732.9121170146308</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>584.9990234322377</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>438.1090759343273</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>270.9129766492072</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>129.2011454914053</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6396,40 +6396,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U28" t="n">
-        <v>1949.83911739012</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V28" t="n">
-        <v>1695.154629184233</v>
+        <v>1500.747069396421</v>
       </c>
       <c r="W28" t="n">
-        <v>1405.737459147272</v>
+        <v>1500.747069396421</v>
       </c>
       <c r="X28" t="n">
-        <v>1177.747908249255</v>
+        <v>1272.757518498403</v>
       </c>
       <c r="Y28" t="n">
-        <v>956.9553291057244</v>
+        <v>1051.964939354873</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6493,22 +6493,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>2854.44064873475</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.44064873475</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6940,31 +6940,31 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7077,22 +7077,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2342.134540858491</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2122.533075881433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1833.45784922563</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1578.773361019743</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1289.356190982783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1061.366640084765</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>840.5740609412353</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7505,10 +7505,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1669.670361056914</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1380.253191019954</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1152.263640121936</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y46" t="n">
-        <v>931.4710609784063</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>320.6148781080821</v>
+        <v>320.6148781080807</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>110.0452703542099</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>282.3928579664026</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378117</v>
+        <v>459.2743913378119</v>
       </c>
       <c r="N6" t="n">
-        <v>111.2593317529662</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>120.7985838586374</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9556134882990932</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>294.8344935184732</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>50.86033664601052</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>4.186823682520753</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>14.15991148283345</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6.257951202385144</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>8.661728554219479</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
     </row>
     <row r="26">
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>46.23519869956645</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>258.8387309000593</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>144.5956654067403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>45.44677382459305</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>143.6212754172146</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>233.6093054540142</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>186.142843193523</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>918020.6338088448</v>
+        <v>918020.6338088447</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>834287.2737305969</v>
+        <v>834287.273730597</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051419</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675039</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675044</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161973</v>
+        <v>548460.0746161963</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299264</v>
+        <v>225009.9816299272</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230286</v>
+        <v>291685.0095230268</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624544</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843802</v>
+        <v>167098.12928438</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243599394</v>
+        <v>498.7619243600943</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198063</v>
+        <v>247452.3619198065</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467442</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26435,16 +26435,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719718</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719702</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.3137194603</v>
+        <v>80023.31371946025</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905219</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260154.4228572513</v>
+        <v>-260154.4228572505</v>
       </c>
       <c r="C6" t="n">
-        <v>106945.7743290818</v>
+        <v>106945.7743290809</v>
       </c>
       <c r="D6" t="n">
-        <v>98044.68188859517</v>
+        <v>98044.68188859697</v>
       </c>
       <c r="E6" t="n">
-        <v>-10755.39014266625</v>
+        <v>-11102.76939702497</v>
       </c>
       <c r="F6" t="n">
-        <v>496730.0514818779</v>
+        <v>496382.6722275207</v>
       </c>
       <c r="G6" t="n">
-        <v>496730.0514818774</v>
+        <v>496382.6722275203</v>
       </c>
       <c r="H6" t="n">
-        <v>496730.0514818775</v>
+        <v>496382.6722275203</v>
       </c>
       <c r="I6" t="n">
-        <v>496730.0514818774</v>
+        <v>496382.6722275208</v>
       </c>
       <c r="J6" t="n">
-        <v>329631.9221974973</v>
+        <v>329284.5429431407</v>
       </c>
       <c r="K6" t="n">
-        <v>496231.2895575176</v>
+        <v>495883.9103031601</v>
       </c>
       <c r="L6" t="n">
-        <v>496730.0514818774</v>
+        <v>496382.6722275207</v>
       </c>
       <c r="M6" t="n">
-        <v>364122.7577529509</v>
+        <v>363775.3784985938</v>
       </c>
       <c r="N6" t="n">
-        <v>496730.0514818775</v>
+        <v>496382.6722275204</v>
       </c>
       <c r="O6" t="n">
-        <v>496730.0514818773</v>
+        <v>496382.6722275207</v>
       </c>
       <c r="P6" t="n">
-        <v>496730.0514818775</v>
+        <v>496382.6722275206</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817393</v>
+        <v>347.0634059817388</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621447</v>
+        <v>638.646899162144</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817393</v>
+        <v>347.0634059817388</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563257</v>
+        <v>246.4126943563263</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794765</v>
+        <v>340.5887917794744</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241324</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621447</v>
+        <v>638.646899162144</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937894116</v>
+        <v>1.937932937894971</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621448</v>
+        <v>638.646899162144</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894141</v>
+        <v>1.937932937894743</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621447</v>
+        <v>638.646899162144</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894116</v>
+        <v>1.937932937894971</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9.272232250731918</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548844</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387724</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337391</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>245.1378674036352</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>93.07342787474042</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870442</v>
+        <v>53.80849853870449</v>
       </c>
       <c r="S3" t="n">
-        <v>93.0734278747381</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3651273148851</v>
       </c>
       <c r="H4" t="n">
-        <v>115.0825232831675</v>
+        <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077895</v>
+        <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>49.11144063601733</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845175</v>
+        <v>33.75546894845183</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724862</v>
+        <v>56.06228064959286</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866937</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>385.2331362612943</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>361.2873486959411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27703,10 +27703,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>70.5399904527889</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.53999045278803</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>53.62724997952235</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>63.51977423855169</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>104.7827759905942</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>143.9585533378837</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.8348980058932</v>
+        <v>95.33053997587669</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790911</v>
+        <v>1.395229772790908</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059492</v>
+        <v>14.28889691059489</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552164</v>
+        <v>53.78959581552155</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284127</v>
+        <v>118.4183829284125</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106519</v>
+        <v>177.4784592106517</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697019</v>
+        <v>220.1777223697015</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415722</v>
+        <v>244.9901398415718</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335144</v>
+        <v>248.954336433514</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803247</v>
+        <v>235.0805203803244</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645491</v>
+        <v>200.6357853645488</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264746</v>
+        <v>150.6691191264743</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507712</v>
+        <v>87.64310221507698</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747291</v>
+        <v>31.79379844747286</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392215</v>
+        <v>6.107618330392205</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232728</v>
+        <v>0.1116183818232727</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682695</v>
+        <v>0.7465137411682683</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809341</v>
+        <v>7.209751131809329</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110051</v>
+        <v>25.70233714110047</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502499</v>
+        <v>70.52917762502487</v>
       </c>
       <c r="K3" t="n">
-        <v>120.545598283299</v>
+        <v>120.5455982832988</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426982</v>
+        <v>162.0884331426979</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600479</v>
+        <v>189.1495562600476</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821808</v>
+        <v>194.1557821821804</v>
       </c>
       <c r="O3" t="n">
-        <v>177.614609285768</v>
+        <v>177.6146092857678</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323865</v>
+        <v>142.5513827323863</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351455</v>
+        <v>95.2918242235144</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393871</v>
+        <v>46.34933561393864</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389307</v>
+        <v>13.86616532389304</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200173</v>
+        <v>3.008974246200168</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949144</v>
+        <v>0.04911274612949135</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736282</v>
+        <v>0.6258520435736272</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772808</v>
+        <v>5.564393623772799</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946875</v>
+        <v>18.82107781946872</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065551</v>
+        <v>44.24773948065544</v>
       </c>
       <c r="K4" t="n">
-        <v>72.7126283351906</v>
+        <v>72.71262833519049</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730106</v>
+        <v>93.04713018730092</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218245</v>
+        <v>98.10515261218229</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886265</v>
+        <v>95.77243135886249</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711614</v>
+        <v>88.46134157711599</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821405</v>
+        <v>75.69395988821394</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324264</v>
+        <v>52.40657430324255</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468331</v>
+        <v>28.14058370468327</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027859</v>
+        <v>10.90689425027857</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269138</v>
+        <v>2.674095095269134</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492521</v>
+        <v>0.03413738419492516</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>248.0319961154042</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>351.1157147121651</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32317,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209185</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>616.5397119226051</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738002</v>
+        <v>106.4690935738</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368362</v>
+        <v>281.5340207368358</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501651</v>
+        <v>402.0725219501647</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071319</v>
+        <v>464.1574401071315</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489077</v>
+        <v>456.8881972489072</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213833</v>
+        <v>385.782490221383</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807622</v>
+        <v>291.2014977807619</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119298</v>
+        <v>140.6784199119295</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876713</v>
+        <v>69.78258629876701</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215186</v>
+        <v>247.1693963215184</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662832</v>
+        <v>394.3743986662829</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880294</v>
+        <v>512.7205860880292</v>
       </c>
       <c r="N3" t="n">
-        <v>383.4289482069295</v>
+        <v>383.4289482069279</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180531</v>
+        <v>428.8806841180528</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579934</v>
+        <v>327.0397439579932</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733421</v>
+        <v>165.387337873342</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930775</v>
+        <v>50.44313650930764</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476172</v>
+        <v>120.6371554476171</v>
       </c>
       <c r="M4" t="n">
-        <v>137.689029574023</v>
+        <v>137.6890295740229</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380912</v>
+        <v>139.9046037380911</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911558</v>
+        <v>113.0464694911557</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310754</v>
+        <v>72.97251915310743</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>306.342455093586</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>454.2807623269678</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N6" t="n">
-        <v>311.9227071596982</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>143.7651911333616</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>187.5431097317847</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634704</v>
+        <v>544.5140226420056</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667043</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>213.2742757378061</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410443</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899112</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>477.9853321427309</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2326077.483499805</v>
+        <v>2327838.013802588</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.90750774234414</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>275.5787406113905</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548844</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.2260157260727</v>
+        <v>62.22601572607269</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>124.5932332748339</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220424</v>
+        <v>94.740770113285</v>
       </c>
       <c r="H3" t="n">
-        <v>11.95226522994673</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>63.69429571031461</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.80849853870448</v>
       </c>
       <c r="S3" t="n">
         <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486215</v>
+        <v>197.1557544486214</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.3452201400865</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>93.09052702289337</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866937</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>27.68376768464247</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>201.4573961159319</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>74.52922194059585</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>74.8126360634417</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>92.80671266704682</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>111.5266024655407</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>99.7979570227466</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>267.5891494350703</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>24.55276019063743</v>
       </c>
       <c r="H10" t="n">
-        <v>51.92096917925216</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.04917322725603</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>166.5451136812777</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>151.3642268094354</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>26.05480806223644</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>178.8757728051408</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>35.03063761899909</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>81.13054509253637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>39.56681219551418</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1589.142112486515</v>
+        <v>1316.797396226235</v>
       </c>
       <c r="C2" t="n">
-        <v>1220.179595546103</v>
+        <v>1316.797396226235</v>
       </c>
       <c r="D2" t="n">
-        <v>861.9138969393528</v>
+        <v>1316.797396226235</v>
       </c>
       <c r="E2" t="n">
-        <v>476.1256443411085</v>
+        <v>1316.797396226235</v>
       </c>
       <c r="F2" t="n">
-        <v>65.13973955150095</v>
+        <v>905.8114914366272</v>
       </c>
       <c r="G2" t="n">
-        <v>51.09175193297152</v>
+        <v>487.7230997776937</v>
       </c>
       <c r="H2" t="n">
-        <v>51.09175193297152</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297152</v>
+        <v>51.09175193297153</v>
       </c>
       <c r="J2" t="n">
         <v>156.4961545710335</v>
@@ -4336,7 +4336,7 @@
         <v>435.214835100501</v>
       </c>
       <c r="L2" t="n">
-        <v>833.266631831164</v>
+        <v>833.2666318311637</v>
       </c>
       <c r="M2" t="n">
         <v>1292.782497537224</v>
@@ -4357,25 +4357,25 @@
         <v>2491.733035309109</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309109</v>
+        <v>2312.7165998154</v>
       </c>
       <c r="T2" t="n">
-        <v>2491.733035309109</v>
+        <v>2093.536568266168</v>
       </c>
       <c r="U2" t="n">
-        <v>2491.733035309109</v>
+        <v>2093.536568266168</v>
       </c>
       <c r="V2" t="n">
-        <v>2491.733035309109</v>
+        <v>2093.536568266168</v>
       </c>
       <c r="W2" t="n">
-        <v>2491.733035309109</v>
+        <v>2093.536568266168</v>
       </c>
       <c r="X2" t="n">
-        <v>2365.881284526448</v>
+        <v>2093.536568266168</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.741952550637</v>
+        <v>1703.397236290356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>894.638642603722</v>
+        <v>840.2866238777583</v>
       </c>
       <c r="C3" t="n">
-        <v>720.185613322595</v>
+        <v>665.8335945966313</v>
       </c>
       <c r="D3" t="n">
-        <v>571.2512036613438</v>
+        <v>516.89918493538</v>
       </c>
       <c r="E3" t="n">
-        <v>412.0137486558883</v>
+        <v>357.6617299299245</v>
       </c>
       <c r="F3" t="n">
-        <v>265.4791906827733</v>
+        <v>211.1271719568095</v>
       </c>
       <c r="G3" t="n">
-        <v>127.5024195493971</v>
+        <v>115.4294243676327</v>
       </c>
       <c r="H3" t="n">
         <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297152</v>
+        <v>51.09175193297153</v>
       </c>
       <c r="J3" t="n">
         <v>120.1765123687509</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270541</v>
+        <v>364.8742147270542</v>
       </c>
       <c r="L3" t="n">
         <v>755.3048694066742</v>
@@ -4427,34 +4427,34 @@
         <v>2067.084785635554</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153967</v>
+        <v>2390.854132153968</v>
       </c>
       <c r="Q3" t="n">
         <v>2554.587596648576</v>
       </c>
       <c r="R3" t="n">
-        <v>2554.587596648576</v>
+        <v>2500.235577922612</v>
       </c>
       <c r="S3" t="n">
-        <v>2395.176479699137</v>
+        <v>2340.824460973173</v>
       </c>
       <c r="T3" t="n">
-        <v>2196.029252983358</v>
+        <v>2141.677234257394</v>
       </c>
       <c r="U3" t="n">
-        <v>1967.855243554221</v>
+        <v>1913.503224828257</v>
       </c>
       <c r="V3" t="n">
-        <v>1732.703135322478</v>
+        <v>1678.351116596515</v>
       </c>
       <c r="W3" t="n">
-        <v>1478.465778594277</v>
+        <v>1424.113759868313</v>
       </c>
       <c r="X3" t="n">
-        <v>1270.614278388744</v>
+        <v>1216.26225966278</v>
       </c>
       <c r="Y3" t="n">
-        <v>1062.85397962379</v>
+        <v>1008.501960897826</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2245.29443421465</v>
+        <v>664.9476153535177</v>
       </c>
       <c r="C4" t="n">
-        <v>2076.358251286743</v>
+        <v>496.0114324256108</v>
       </c>
       <c r="D4" t="n">
-        <v>1926.241611874407</v>
+        <v>345.894793013275</v>
       </c>
       <c r="E4" t="n">
-        <v>1926.241611874407</v>
+        <v>197.9816994308819</v>
       </c>
       <c r="F4" t="n">
-        <v>1926.241611874407</v>
+        <v>51.09175193297153</v>
       </c>
       <c r="G4" t="n">
-        <v>1926.241611874407</v>
+        <v>51.09175193297153</v>
       </c>
       <c r="H4" t="n">
-        <v>1926.241611874407</v>
+        <v>51.09175193297153</v>
       </c>
       <c r="I4" t="n">
-        <v>1926.241611874407</v>
+        <v>51.09175193297153</v>
       </c>
       <c r="J4" t="n">
-        <v>1926.241611874407</v>
+        <v>51.09175193297153</v>
       </c>
       <c r="K4" t="n">
-        <v>1976.180317018622</v>
+        <v>101.0304570771861</v>
       </c>
       <c r="L4" t="n">
-        <v>2095.611100911763</v>
+        <v>220.461240970327</v>
       </c>
       <c r="M4" t="n">
-        <v>2231.923240190045</v>
+        <v>356.7733802486097</v>
       </c>
       <c r="N4" t="n">
-        <v>2370.428797890756</v>
+        <v>495.2789379493199</v>
       </c>
       <c r="O4" t="n">
-        <v>2482.344802687</v>
+        <v>607.194942745564</v>
       </c>
       <c r="P4" t="n">
-        <v>2554.587596648576</v>
+        <v>679.4377367071404</v>
       </c>
       <c r="Q4" t="n">
-        <v>2554.587596648576</v>
+        <v>679.4377367071404</v>
       </c>
       <c r="R4" t="n">
-        <v>2460.556761271916</v>
+        <v>679.4377367071404</v>
       </c>
       <c r="S4" t="n">
-        <v>2245.29443421465</v>
+        <v>679.4377367071404</v>
       </c>
       <c r="T4" t="n">
-        <v>2245.29443421465</v>
+        <v>679.4377367071404</v>
       </c>
       <c r="U4" t="n">
-        <v>2245.29443421465</v>
+        <v>679.4377367071404</v>
       </c>
       <c r="V4" t="n">
-        <v>2245.29443421465</v>
+        <v>679.4377367071404</v>
       </c>
       <c r="W4" t="n">
-        <v>2245.29443421465</v>
+        <v>679.4377367071404</v>
       </c>
       <c r="X4" t="n">
-        <v>2245.29443421465</v>
+        <v>679.4377367071404</v>
       </c>
       <c r="Y4" t="n">
-        <v>2245.29443421465</v>
+        <v>679.4377367071404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>490.1960930592697</v>
+        <v>1468.60104502845</v>
       </c>
       <c r="C5" t="n">
-        <v>490.1960930592697</v>
+        <v>1468.60104502845</v>
       </c>
       <c r="D5" t="n">
-        <v>490.1960930592697</v>
+        <v>1468.60104502845</v>
       </c>
       <c r="E5" t="n">
-        <v>490.1960930592697</v>
+        <v>1082.812792430205</v>
       </c>
       <c r="F5" t="n">
-        <v>79.21018826966218</v>
+        <v>671.8268876405978</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>254.7391058770252</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>72.48103656138642</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
         <v>155.0441911359788</v>
@@ -4585,34 +4585,34 @@
         <v>2416.620883129034</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.355208378561</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896984</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164695</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="U5" t="n">
-        <v>1937.632725909846</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="V5" t="n">
-        <v>1606.569838566275</v>
+        <v>1821.369700298564</v>
       </c>
       <c r="W5" t="n">
-        <v>1253.801183296161</v>
+        <v>1468.60104502845</v>
       </c>
       <c r="X5" t="n">
-        <v>880.3354250350815</v>
+        <v>1468.60104502845</v>
       </c>
       <c r="Y5" t="n">
-        <v>490.1960930592697</v>
+        <v>1468.60104502845</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857321</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046051</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433539</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378983</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647829</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>126.8151058240048</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>169.9060384248988</v>
@@ -4655,25 +4655,25 @@
         <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1637.874966375866</v>
+        <v>1183.193318951432</v>
       </c>
       <c r="N6" t="n">
-        <v>1836.531708028531</v>
+        <v>1381.850060604097</v>
       </c>
       <c r="O6" t="n">
-        <v>1996.044020697291</v>
+        <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2420.011789178128</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802343</v>
+        <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664978</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
         <v>2194.771343825065</v>
@@ -4685,7 +4685,7 @@
         <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376287</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
         <v>1269.391591170754</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>312.9821679488397</v>
+        <v>536.0872902500015</v>
       </c>
       <c r="C7" t="n">
-        <v>312.9821679488397</v>
+        <v>367.1511073220946</v>
       </c>
       <c r="D7" t="n">
-        <v>162.8655285365039</v>
+        <v>217.0344679097588</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736573</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736573</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736573</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736573</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736573</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4761,16 +4761,16 @@
         <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>938.5283342237714</v>
       </c>
       <c r="W7" t="n">
-        <v>761.7642979903871</v>
+        <v>938.5283342237714</v>
       </c>
       <c r="X7" t="n">
-        <v>533.7747470923698</v>
+        <v>938.5283342237714</v>
       </c>
       <c r="Y7" t="n">
-        <v>312.9821679488397</v>
+        <v>717.7357550802412</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>394.8580066177528</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="C8" t="n">
-        <v>394.8580066177528</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="D8" t="n">
-        <v>394.8580066177528</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>394.8580066177528</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>387.9125058685493</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918766</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1171.597178657686</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>781.4578466818746</v>
+        <v>861.3216348137587</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625333</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217535</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118699</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.639966294861</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657498</v>
+        <v>689.90341785788</v>
       </c>
       <c r="C10" t="n">
-        <v>716.5983551657498</v>
+        <v>520.9672349299731</v>
       </c>
       <c r="D10" t="n">
-        <v>566.4817157534141</v>
+        <v>370.8505955176373</v>
       </c>
       <c r="E10" t="n">
-        <v>418.5686221710209</v>
+        <v>222.9375019352442</v>
       </c>
       <c r="F10" t="n">
-        <v>271.6786746731105</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="G10" t="n">
-        <v>103.6922099813891</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.03939913952</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959895</v>
+        <v>871.5518826881197</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2211.689992275817</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1922.614765620015</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.930277414128</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1378.513107377167</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1150.52355647915</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356195</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,28 +5296,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>768.5380889459582</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>618.4214495336224</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E16" t="n">
-        <v>470.5083559512293</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>470.5083559512293</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,25 +5530,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6080,7 +6080,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1051.964939354873</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>883.0287564269665</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>732.9121170146308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>584.9990234322377</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>438.1090759343273</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>270.9129766492072</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>129.2011454914053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6396,40 +6396,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235169</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.50678425811</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602308</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396421</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396421</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.757518498403</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.964939354873</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6493,7 +6493,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>318.834458340125</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>151.638359055005</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6931,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6946,40 +6946,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7080,19 +7080,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7168,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7320,16 +7320,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
         <v>484.8112968429803</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>320.6148781080807</v>
+        <v>320.6148781080811</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>282.3928579664026</v>
+        <v>282.3928579664021</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378119</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>369.9956874605996</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>120.7985838586374</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>54.9531451156659</v>
       </c>
       <c r="P9" t="n">
-        <v>294.8344935184732</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>111.1976478713718</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>50.86033664601052</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>14.15991148283345</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>40.32043864788521</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>46.23519869956645</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.05123379926113</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294992</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>65.30341755403281</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>186.142843193523</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813855.9833051419</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="16">
@@ -26316,16 +26316,16 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="F2" t="n">
-        <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675041</v>
@@ -26334,28 +26334,28 @@
         <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>605359.9497675039</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161963</v>
+        <v>548460.0746161966</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299272</v>
+        <v>225009.9816299271</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230268</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26441,19 +26441,19 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719718</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719702</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719696</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946025</v>
+        <v>80023.31371946026</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905219</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260154.4228572505</v>
+        <v>-260154.4228572508</v>
       </c>
       <c r="C6" t="n">
         <v>106945.7743290809</v>
       </c>
       <c r="D6" t="n">
-        <v>98044.68188859697</v>
+        <v>98044.68188859662</v>
       </c>
       <c r="E6" t="n">
-        <v>-11102.76939702497</v>
+        <v>-10790.1280681041</v>
       </c>
       <c r="F6" t="n">
-        <v>496382.6722275207</v>
+        <v>496695.3135564418</v>
       </c>
       <c r="G6" t="n">
-        <v>496382.6722275203</v>
+        <v>496695.3135564416</v>
       </c>
       <c r="H6" t="n">
-        <v>496382.6722275203</v>
+        <v>496695.3135564417</v>
       </c>
       <c r="I6" t="n">
-        <v>496382.6722275208</v>
+        <v>496695.3135564419</v>
       </c>
       <c r="J6" t="n">
-        <v>329284.5429431407</v>
+        <v>329597.1842720617</v>
       </c>
       <c r="K6" t="n">
-        <v>495883.9103031601</v>
+        <v>496196.5516320819</v>
       </c>
       <c r="L6" t="n">
-        <v>496382.6722275207</v>
+        <v>496695.3135564413</v>
       </c>
       <c r="M6" t="n">
-        <v>363775.3784985938</v>
+        <v>364088.0198275151</v>
       </c>
       <c r="N6" t="n">
-        <v>496382.6722275204</v>
+        <v>496695.3135564418</v>
       </c>
       <c r="O6" t="n">
-        <v>496382.6722275207</v>
+        <v>496695.3135564415</v>
       </c>
       <c r="P6" t="n">
-        <v>496382.6722275206</v>
+        <v>496695.3135564419</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.646899162144</v>
+        <v>638.6468991621441</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>246.4126943563263</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794744</v>
+        <v>340.5887917794741</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.646899162144</v>
+        <v>638.6468991621441</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937894971</v>
+        <v>1.937932937894743</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.646899162144</v>
+        <v>638.6468991621441</v>
       </c>
       <c r="K4" t="n">
         <v>1.937932937894743</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.646899162144</v>
+        <v>638.6468991621441</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894971</v>
+        <v>1.937932937894743</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>49.60716459378176</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548844</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387725</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>245.1378674036352</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>41.85623330875738</v>
       </c>
       <c r="H3" t="n">
-        <v>93.07342787474042</v>
+        <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870449</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>165.4867600418508</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3651273148851</v>
@@ -27557,7 +27557,7 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077896</v>
+        <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
         <v>49.11144063601733</v>
@@ -27584,10 +27584,10 @@
         <v>33.75546894845183</v>
       </c>
       <c r="R4" t="n">
-        <v>56.06228064959286</v>
+        <v>149.1528076724862</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>385.2331362612943</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>113.5834879592837</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>70.53999045278803</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>25.09418201320175</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.62724997952235</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27833,13 +27833,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>140.6110408582873</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>254.8850845979364</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>143.9585533378837</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>141.7538398541668</v>
       </c>
       <c r="H10" t="n">
-        <v>95.33053997587669</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,13 +28070,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790908</v>
+        <v>1.395229772790909</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059489</v>
+        <v>14.2888969105949</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552155</v>
+        <v>53.78959581552156</v>
       </c>
       <c r="J2" t="n">
         <v>118.4183829284125</v>
@@ -31071,16 +31071,16 @@
         <v>200.6357853645488</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264743</v>
+        <v>150.6691191264744</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507698</v>
+        <v>87.64310221507699</v>
       </c>
       <c r="S2" t="n">
         <v>31.79379844747286</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392205</v>
+        <v>6.107618330392206</v>
       </c>
       <c r="U2" t="n">
         <v>0.1116183818232727</v>
@@ -31120,10 +31120,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682683</v>
+        <v>0.7465137411682684</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809329</v>
+        <v>7.20975113180933</v>
       </c>
       <c r="I3" t="n">
         <v>25.70233714110047</v>
@@ -31132,7 +31132,7 @@
         <v>70.52917762502487</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832988</v>
+        <v>120.5455982832989</v>
       </c>
       <c r="L3" t="n">
         <v>162.0884331426979</v>
@@ -31141,7 +31141,7 @@
         <v>189.1495562600476</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821804</v>
+        <v>194.1557821821805</v>
       </c>
       <c r="O3" t="n">
         <v>177.6146092857678</v>
@@ -31150,19 +31150,19 @@
         <v>142.5513827323863</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.2918242235144</v>
+        <v>95.29182422351441</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393864</v>
+        <v>46.34933561393865</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389304</v>
+        <v>13.86616532389305</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200168</v>
+        <v>3.008974246200169</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949135</v>
+        <v>0.04911274612949136</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736272</v>
+        <v>0.6258520435736273</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772799</v>
+        <v>5.5643936237728</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946872</v>
+        <v>18.82107781946873</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065544</v>
+        <v>44.24773948065545</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519049</v>
+        <v>72.7126283351905</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730092</v>
+        <v>93.04713018730094</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218229</v>
+        <v>98.10515261218231</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886249</v>
+        <v>95.77243135886251</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711599</v>
+        <v>88.461341577116</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821394</v>
+        <v>75.69395988821395</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324255</v>
+        <v>52.40657430324256</v>
       </c>
       <c r="R4" t="n">
         <v>28.14058370468327</v>
@@ -31241,7 +31241,7 @@
         <v>2.674095095269134</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492516</v>
+        <v>0.03413738419492517</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34701,16 +34701,16 @@
         <v>106.4690935738</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368358</v>
+        <v>281.5340207368359</v>
       </c>
       <c r="L2" t="n">
         <v>402.0725219501647</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071315</v>
+        <v>464.1574401071316</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489072</v>
+        <v>456.8881972489073</v>
       </c>
       <c r="O2" t="n">
         <v>385.782490221383</v>
@@ -34719,7 +34719,7 @@
         <v>291.2014977807619</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119295</v>
+        <v>140.6784199119296</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>69.78258629876701</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215184</v>
+        <v>247.1693963215185</v>
       </c>
       <c r="L3" t="n">
         <v>394.3743986662829</v>
@@ -34789,7 +34789,7 @@
         <v>512.7205860880292</v>
       </c>
       <c r="N3" t="n">
-        <v>383.4289482069279</v>
+        <v>383.4289482069283</v>
       </c>
       <c r="O3" t="n">
         <v>428.8806841180528</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930764</v>
+        <v>50.44313650930765</v>
       </c>
       <c r="L4" t="n">
         <v>120.6371554476171</v>
@@ -34874,7 +34874,7 @@
         <v>113.0464694911557</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310743</v>
+        <v>72.97251915310744</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>454.2807623269678</v>
+        <v>454.2807623269672</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
@@ -35023,19 +35023,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.584832100039</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>531.1192356108629</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>143.7651911333616</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>390.3778271117889</v>
       </c>
       <c r="P9" t="n">
-        <v>544.5140226420056</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36612,13 +36612,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899112</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
